--- a/prog/Map Registers.xlsx
+++ b/prog/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF25A86B-5AB8-421F-9A98-0407E0F3E840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52F568F-729F-4404-8C6C-8463697D34B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
   <si>
     <t>Десятичная</t>
   </si>
@@ -249,78 +249,6 @@
   </si>
   <si>
     <t>0x55</t>
-  </si>
-  <si>
-    <t>0x56</t>
-  </si>
-  <si>
-    <t>0x57</t>
-  </si>
-  <si>
-    <t>0x58</t>
-  </si>
-  <si>
-    <t>0x59</t>
-  </si>
-  <si>
-    <t>0x60</t>
-  </si>
-  <si>
-    <t>0x61</t>
-  </si>
-  <si>
-    <t>0x62</t>
-  </si>
-  <si>
-    <t>0x63</t>
-  </si>
-  <si>
-    <t>0x64</t>
-  </si>
-  <si>
-    <t>0x65</t>
-  </si>
-  <si>
-    <t>0x66</t>
-  </si>
-  <si>
-    <t>0x67</t>
-  </si>
-  <si>
-    <t>0x68</t>
-  </si>
-  <si>
-    <t>0x69</t>
-  </si>
-  <si>
-    <t>0x70</t>
-  </si>
-  <si>
-    <t>0x71</t>
-  </si>
-  <si>
-    <t>0x72</t>
-  </si>
-  <si>
-    <t>0x73</t>
-  </si>
-  <si>
-    <t>0x74</t>
-  </si>
-  <si>
-    <t>0x75</t>
-  </si>
-  <si>
-    <t>0x76</t>
-  </si>
-  <si>
-    <t>0x77</t>
-  </si>
-  <si>
-    <t>0x78</t>
-  </si>
-  <si>
-    <t>0x79</t>
   </si>
   <si>
     <t>dim_chanels 0</t>
@@ -1280,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -1507,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -1522,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -1537,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -1606,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -1621,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -1629,14 +1557,14 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="27">
         <v>16</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -1644,14 +1572,14 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27">
         <v>17</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -1659,14 +1587,14 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="27">
         <v>18</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -1674,14 +1602,14 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="27">
         <v>19</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -1689,14 +1617,14 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="27">
         <v>20</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1704,14 +1632,14 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="27">
         <v>21</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1719,14 +1647,14 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="27">
         <v>22</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1734,14 +1662,14 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="27">
         <v>23</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1756,7 +1684,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -1771,7 +1699,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -1780,13 +1708,13 @@
     </row>
     <row r="30" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B30" s="27">
         <v>26</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -1795,13 +1723,13 @@
     </row>
     <row r="31" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B31" s="27">
         <v>27</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -1810,13 +1738,13 @@
     </row>
     <row r="32" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B32" s="27">
         <v>28</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -1825,13 +1753,13 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B33" s="27">
         <v>29</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -1839,14 +1767,14 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
-        <v>44</v>
+      <c r="A34" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="27">
         <v>30</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -1855,13 +1783,13 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B35" s="27">
         <v>31</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -1869,14 +1797,14 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
-        <v>46</v>
+      <c r="A36" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="27">
         <v>32</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -1884,14 +1812,14 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
-        <v>47</v>
+      <c r="A37" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="27">
         <v>33</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -1899,14 +1827,14 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
-        <v>48</v>
+      <c r="A38" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="27">
         <v>34</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -1914,14 +1842,14 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
-        <v>49</v>
+      <c r="A39" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="27">
         <v>35</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -1929,14 +1857,14 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>50</v>
+      <c r="A40" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="27">
         <v>36</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -1944,14 +1872,14 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>51</v>
+      <c r="A41" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="27">
         <v>37</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
@@ -1959,14 +1887,14 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>52</v>
+      <c r="A42" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="27">
         <v>38</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
@@ -1974,14 +1902,14 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>53</v>
+      <c r="A43" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="27">
         <v>39</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -1990,13 +1918,13 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B44" s="27">
         <v>40</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -2005,13 +1933,13 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B45" s="27">
         <v>41</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -2020,13 +1948,13 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B46" s="27">
         <v>42</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -2035,13 +1963,13 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B47" s="27">
         <v>43</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -2050,13 +1978,13 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B48" s="27">
         <v>44</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -2065,13 +1993,13 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B49" s="27">
         <v>45</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -2079,14 +2007,14 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>60</v>
+      <c r="A50" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B50" s="27">
         <v>46</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -2095,13 +2023,13 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B51" s="27">
         <v>47</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -2109,14 +2037,14 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
-        <v>62</v>
+      <c r="A52" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B52" s="27">
         <v>48</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
@@ -2124,14 +2052,14 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
-        <v>63</v>
+      <c r="A53" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="B53" s="27">
         <v>49</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
@@ -2139,14 +2067,14 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>64</v>
+      <c r="A54" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B54" s="27">
         <v>50</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -2154,14 +2082,14 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>65</v>
+      <c r="A55" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="B55" s="27">
         <v>51</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -2169,14 +2097,14 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
-        <v>66</v>
+      <c r="A56" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="B56" s="27">
         <v>52</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
@@ -2184,14 +2112,14 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>67</v>
+      <c r="A57" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="B57" s="27">
         <v>53</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -2199,14 +2127,14 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
-        <v>68</v>
+      <c r="A58" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="B58" s="27">
         <v>54</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -2214,14 +2142,14 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>69</v>
+      <c r="A59" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="B59" s="27">
         <v>55</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -2230,13 +2158,13 @@
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B60" s="27">
         <v>56</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
@@ -2245,13 +2173,13 @@
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B61" s="27">
         <v>57</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
@@ -2260,13 +2188,13 @@
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B62" s="27">
         <v>58</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
@@ -2275,13 +2203,13 @@
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B63" s="27">
         <v>59</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -2290,13 +2218,13 @@
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B64" s="27">
         <v>60</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
@@ -2305,13 +2233,13 @@
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B65" s="27">
         <v>61</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
@@ -2319,14 +2247,14 @@
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
-        <v>76</v>
+      <c r="A66" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B66" s="27">
         <v>62</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -2335,13 +2263,13 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B67" s="27">
         <v>63</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -2349,14 +2277,14 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
-        <v>78</v>
+      <c r="A68" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B68" s="27">
         <v>64</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
@@ -2364,14 +2292,14 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
-        <v>79</v>
+      <c r="A69" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="B69" s="27">
         <v>65</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -2379,14 +2307,14 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
-        <v>80</v>
+      <c r="A70" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="B70" s="27">
         <v>66</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
@@ -2394,14 +2322,14 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
-        <v>81</v>
+      <c r="A71" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="B71" s="27">
         <v>67</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
@@ -2409,14 +2337,14 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23" t="s">
-        <v>82</v>
+      <c r="A72" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="B72" s="27">
         <v>68</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2424,14 +2352,14 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
-        <v>83</v>
+      <c r="A73" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B73" s="27">
         <v>69</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -2439,14 +2367,14 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23" t="s">
-        <v>84</v>
+      <c r="A74" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="B74" s="27">
         <v>70</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
@@ -2454,14 +2382,14 @@
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
-        <v>85</v>
+      <c r="A75" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="B75" s="27">
         <v>71</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
@@ -2470,13 +2398,13 @@
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B76" s="27">
         <v>72</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
@@ -2485,13 +2413,13 @@
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B77" s="27">
         <v>73</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
@@ -2500,13 +2428,13 @@
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B78" s="27">
         <v>74</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
@@ -2515,13 +2443,13 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B79" s="27">
         <v>75</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
@@ -2530,13 +2458,13 @@
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B80" s="27">
         <v>76</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
@@ -2545,13 +2473,13 @@
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B81" s="27">
         <v>77</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -2559,14 +2487,14 @@
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
-        <v>92</v>
+      <c r="A82" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B82" s="27">
         <v>78</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
@@ -2575,13 +2503,13 @@
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="23" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B83" s="27">
         <v>79</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
@@ -2589,14 +2517,14 @@
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
-        <v>94</v>
+      <c r="A84" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="B84" s="27">
         <v>80</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
@@ -2604,14 +2532,14 @@
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
-        <v>95</v>
+      <c r="A85" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="B85" s="27">
         <v>81</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
@@ -2619,14 +2547,14 @@
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23" t="s">
-        <v>96</v>
+      <c r="A86" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B86" s="27">
         <v>82</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -2634,14 +2562,14 @@
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="23" t="s">
-        <v>97</v>
+      <c r="A87" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="B87" s="27">
         <v>83</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -2649,14 +2577,14 @@
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
-        <v>98</v>
+      <c r="A88" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B88" s="27">
         <v>84</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
@@ -2664,8 +2592,8 @@
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23" t="s">
-        <v>99</v>
+      <c r="A89" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="B89" s="27">
         <v>85</v>
